--- a/output/emis_table_KVIK.xlsx
+++ b/output/emis_table_KVIK.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au277187_uni_au_dk/Documents/Documents/GitHub/AU-BCE-EE/Dalby-2024-KVIK/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_BED6103E00F9618CDC673BFA5F3D01C28A9B0FC2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FB10661-430E-48E0-A170-6EC431E7E15F}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_BED6103E00F9618CDC673BFA5F3D01C28A9B0FC2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{806600E9-D89A-4F0D-969F-7153BD0BEA4C}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -489,14 +502,16 @@
   <dimension ref="A1:N138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C118" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A130" sqref="A130:XFD138"/>
+      <selection pane="bottomRight" activeCell="O100" sqref="O100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="8" max="8" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.140625" customWidth="1"/>
     <col min="13" max="13" width="17" customWidth="1"/>
   </cols>
